--- a/ZR_Eingangswelle_Variante3.xlsx
+++ b/ZR_Eingangswelle_Variante3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz\Desktop\Getriebebeleg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A408E0-B0B8-4AE8-BB0D-BD1C0C7614DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40031A0-3B95-496E-99AD-18368B3D4217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{926A924D-D7AC-4402-ACA1-82EB8F8A49D7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{926A924D-D7AC-4402-ACA1-82EB8F8A49D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="119">
   <si>
     <t>Zahnradberechnung</t>
   </si>
@@ -1992,8 +1992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF91128-5F25-4258-87F5-E92EC2383C9A}">
   <dimension ref="A2:XEW75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2588,18 +2588,13 @@
       <c r="C35" s="7">
         <v>0.38419999999999999</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="D35" s="7"/>
       <c r="F35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G35" s="1">
         <f>C26-C35</f>
         <v>0.30269301411069471</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
